--- a/swimmer_times.xlsx
+++ b/swimmer_times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyzha\Documents\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyzha\Documents\Projects\Swim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23EB75A-3C81-41AC-88AA-EC1F0C64398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D56E7B-B7BD-4149-B2DD-7013453FE881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D51CB851-A697-4B3D-8B9A-3CB060A40EBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D51CB851-A697-4B3D-8B9A-3CB060A40EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Back" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Back!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Breast!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fly!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Free!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,18 +48,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>R Murphy</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>47.02</t>
+  </si>
+  <si>
+    <t>Gender (M/F)</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -490,15 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE57410-9C19-4AE4-8790-5BB7B0706855}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,54 +510,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -572,13 +576,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,57 +591,62 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{A132A580-2F0B-4F25-ACF0-01B1F828EBCD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -647,12 +657,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,18 +672,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>49.45</v>
@@ -679,16 +691,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{4E67298E-0A25-449B-8671-082199277D7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -697,15 +710,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AA4424-7716-431A-8FBA-DB8683CCA8C3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -713,68 +727,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{E8AA4424-7716-431A-8FBA-DB8683CCA8C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>